--- a/IMKL2.x/3. extraregels/IMKL-2.0rc-intern- object-attributen-ExtraRegels.xlsx
+++ b/IMKL2.x/3. extraregels/IMKL-2.0rc-intern- object-attributen-ExtraRegels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\3. extraregels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77A59FB-D396-4858-A7CB-4ABF937FBDF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE6DA8A-644F-4AFB-96C7-E3F41D0607C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21750" yWindow="-6345" windowWidth="17880" windowHeight="10755" tabRatio="875" firstSheet="26" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NL-WIBON" sheetId="27" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4429" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4428" uniqueCount="448">
   <si>
     <t>Annotatie</t>
   </si>
@@ -1559,7 +1559,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1625,13 +1625,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3374,7 +3367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -12767,7 +12760,9 @@
   </sheetPr>
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:F39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13530,22 +13525,22 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="40" t="s">
+      <c r="C39" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" s="50">
+        <v>1</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>156</v>
       </c>
     </row>
